--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -37,9 +37,6 @@
     <t>username</t>
   </si>
   <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>Scenario1</t>
+  </si>
+  <si>
+    <t>By</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +490,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -534,10 +534,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -597,10 +597,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2"/>
     </row>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7F08B8B-C4C6-44C5-9B16-9E824294DC13}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordFramework" sheetId="1" r:id="rId1"/>
@@ -16,12 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
-    <t>Keyword</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -67,14 +62,20 @@
     <t>Scenario1</t>
   </si>
   <si>
-    <t>By</t>
+    <t>Locator Strategy</t>
+  </si>
+  <si>
+    <t>Keyword / Operations</t>
+  </si>
+  <si>
+    <t>Object / Fields</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +83,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -130,11 +144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,24 +505,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -515,62 +530,62 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -580,58 +595,59 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7F08B8B-C4C6-44C5-9B16-9E824294DC13}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1165A15-9A23-442A-AD4D-F5C7EF591E29}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1165A15-9A23-442A-AD4D-F5C7EF591E29}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F77A2D2-D079-4D22-B982-9243B24503D5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F77A2D2-D079-4D22-B982-9243B24503D5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9B35BE-637A-498F-9E00-EAFC7747D0C2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="18">
   <si>
     <t>value</t>
   </si>
@@ -91,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,12 +150,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +499,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +529,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2"/>
@@ -531,12 +539,12 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
     </row>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9B35BE-637A-498F-9E00-EAFC7747D0C2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5B5B4B-330E-4D9D-85D1-F50DF73D2141}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="KeywordFramework" sheetId="1" r:id="rId1"/>
+    <sheet name="Yahoo Registration" sheetId="2" r:id="rId1"/>
+    <sheet name="KeywordFramework" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>value</t>
   </si>
@@ -69,13 +70,22 @@
   </si>
   <si>
     <t>Object / Fields</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>firstname</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +100,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,12 +131,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,14 +162,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,11 +509,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A171B8B-58F0-4CF3-BC8D-93A91D3F4A94}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +709,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2"/>
@@ -538,13 +718,13 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
     </row>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5B5B4B-330E-4D9D-85D1-F50DF73D2141}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E29578-79B8-446F-A39A-AD0B87101E09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yahoo Registration" sheetId="2" r:id="rId1"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A171B8B-58F0-4CF3-BC8D-93A91D3F4A94}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E29578-79B8-446F-A39A-AD0B87101E09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DFE949-B6B4-4572-8A5B-F702F4892CC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="21">
   <si>
     <t>value</t>
   </si>
@@ -109,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +131,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,10 +174,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,147 +532,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6"/>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -679,7 +685,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +724,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -3,20 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DFE949-B6B4-4572-8A5B-F702F4892CC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9DC5DE-B82E-422E-A0E5-D8AD554DB9D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yahoo Registration" sheetId="2" r:id="rId1"/>
     <sheet name="KeywordFramework" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="FB Login" sheetId="3" r:id="rId4"/>
+    <sheet name="Yahoo Reg" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
   <si>
     <t>value</t>
   </si>
@@ -79,13 +82,34 @@
   </si>
   <si>
     <t>firstname</t>
+  </si>
+  <si>
+    <t>Login To FB</t>
+  </si>
+  <si>
+    <t>message4naresh@gmail.com</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>user_email</t>
+  </si>
+  <si>
+    <t>user_password</t>
+  </si>
+  <si>
+    <t>Login To Yahoo</t>
+  </si>
+  <si>
+    <t>loginButtion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +132,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,19 +156,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,21 +203,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,147 +574,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5"/>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5"/>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -685,7 +727,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,8 +757,339 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D400963-A1F7-4C62-B640-2238F7A1EECD}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14393B13-7A89-474C-BA27-37296C1690D1}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -724,124 +1097,160 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{5052A4AD-45E7-43B1-B41E-A6FB804201B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D18A564-52D6-491F-BF76-F65880C705BE}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{B6570B36-6F4A-4B6F-99D0-AAEF127C47F7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>